--- a/scripts/meta/JIRA-28-DSRMWS-MDR Mapping/Data Migration caDSR 2 MDR Mapping-2-IT-0630.xlsx
+++ b/scripts/meta/JIRA-28-DSRMWS-MDR Mapping/Data Migration caDSR 2 MDR Mapping-2-IT-0630.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\JIRA-28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC6608-ABD8-465E-84BF-8BE4E254038C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F20BE0-42AA-44EB-B636-8EA237A39E22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="596" firstSheet="2" activeTab="2" xr2:uid="{3F80AD38-8D16-427F-8B3E-969FD7735B81}"/>
   </bookViews>
